--- a/Code/Results/Cases/Case_4_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_128/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.75269624755839</v>
+        <v>0.4041687455978149</v>
       </c>
       <c r="C2">
-        <v>1.034356851644816</v>
+        <v>0.4412235849344484</v>
       </c>
       <c r="D2">
-        <v>0.1970360613926943</v>
+        <v>0.07715048283563419</v>
       </c>
       <c r="E2">
-        <v>1.363704936219435</v>
+        <v>0.3965652650683182</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008065503248285932</v>
+        <v>0.002541939560967374</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.637178144950553</v>
+        <v>4.411538647597922</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.632275338323126</v>
+        <v>0.8068701660591273</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6333799680431014</v>
+        <v>0.3908692952634567</v>
       </c>
       <c r="C3">
-        <v>0.8924348192120704</v>
+        <v>0.4042094729968255</v>
       </c>
       <c r="D3">
-        <v>0.1691647470062634</v>
+        <v>0.07015876778787344</v>
       </c>
       <c r="E3">
-        <v>1.158758519993739</v>
+        <v>0.345811043711862</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008188794025852739</v>
+        <v>0.002548262252503955</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.444821779085828</v>
+        <v>4.070534916726558</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.392892970802706</v>
+        <v>0.7616356968760556</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5639883429488748</v>
+        <v>0.3834465772345652</v>
       </c>
       <c r="C4">
-        <v>0.8076371275600422</v>
+        <v>0.3816579726803582</v>
       </c>
       <c r="D4">
-        <v>0.1525116034483744</v>
+        <v>0.06591116046998025</v>
       </c>
       <c r="E4">
-        <v>1.037364757783877</v>
+        <v>0.3147953914821642</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008265333113050697</v>
+        <v>0.002552332054598289</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.729270755077408</v>
+        <v>3.86080993971683</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.251706113858688</v>
+        <v>0.7347685387720446</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5365369291255035</v>
+        <v>0.3806063646344171</v>
       </c>
       <c r="C5">
-        <v>0.7735748796758344</v>
+        <v>0.3725108200515876</v>
       </c>
       <c r="D5">
-        <v>0.1458225978228285</v>
+        <v>0.06419137647291961</v>
       </c>
       <c r="E5">
-        <v>0.9888155568767729</v>
+        <v>0.3021901846203576</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008296789923991643</v>
+        <v>0.002554037928637675</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.44109692090089</v>
+        <v>3.775244799034169</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.195405039368552</v>
+        <v>0.724044858176029</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5320246375358124</v>
+        <v>0.3801458334133088</v>
       </c>
       <c r="C6">
-        <v>0.7679461144157074</v>
+        <v>0.3709944873466782</v>
       </c>
       <c r="D6">
-        <v>0.144717276246709</v>
+        <v>0.06390647393328663</v>
       </c>
       <c r="E6">
-        <v>0.980804308000117</v>
+        <v>0.3000990559146004</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008302030893341247</v>
+        <v>0.00255432405652453</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.393432357291033</v>
+        <v>3.761030320690196</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.186124840180042</v>
+        <v>0.7222776915704401</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5636149573373928</v>
+        <v>0.383407528648263</v>
       </c>
       <c r="C7">
-        <v>0.8071758713461747</v>
+        <v>0.3815344395421221</v>
       </c>
       <c r="D7">
-        <v>0.1524210218564406</v>
+        <v>0.06588792203864102</v>
       </c>
       <c r="E7">
-        <v>1.036706522759374</v>
+        <v>0.314625260097273</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008265756204165025</v>
+        <v>0.002552354868485636</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.725371415183503</v>
+        <v>3.859656402561285</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.250942095887126</v>
+        <v>0.7346230089670769</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7106578897553106</v>
+        <v>0.3994274539385003</v>
       </c>
       <c r="C8">
-        <v>0.9848740333582668</v>
+        <v>0.4284239213243666</v>
       </c>
       <c r="D8">
-        <v>0.1873187204485163</v>
+        <v>0.07473017681671479</v>
       </c>
       <c r="E8">
-        <v>1.291988237272093</v>
+        <v>0.3790326083024098</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008107875990635718</v>
+        <v>0.002544080807889554</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.222136256580967</v>
+        <v>4.294024567563184</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.548388847247452</v>
+        <v>0.791083135073734</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.03765931227835</v>
+        <v>0.4368466839879659</v>
       </c>
       <c r="C9">
-        <v>1.357074641303484</v>
+        <v>0.5218301252821789</v>
       </c>
       <c r="D9">
-        <v>0.2603852635983941</v>
+        <v>0.09244186076475103</v>
       </c>
       <c r="E9">
-        <v>1.838715418826268</v>
+        <v>0.5066588854961509</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007801926691178331</v>
+        <v>0.00252933452624865</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.32848826699063</v>
+        <v>5.143701785016901</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.189748139496942</v>
+        <v>0.9091500910551815</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.31533015518832</v>
+        <v>0.4681541170267565</v>
       </c>
       <c r="C10">
-        <v>1.653874570502694</v>
+        <v>0.591441561245972</v>
       </c>
       <c r="D10">
-        <v>0.318574107391882</v>
+        <v>0.1057001517268787</v>
       </c>
       <c r="E10">
-        <v>2.287764644701156</v>
+        <v>0.601454866448492</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007574203779035007</v>
+        <v>0.002519388396983679</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.78314444949996</v>
+        <v>5.767616627688227</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.717363071591933</v>
+        <v>1.000598708895353</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.453983139347883</v>
+        <v>0.4832599991705138</v>
       </c>
       <c r="C11">
-        <v>1.796620865840737</v>
+        <v>0.6233458687815414</v>
       </c>
       <c r="D11">
-        <v>0.3465225162470489</v>
+        <v>0.1117892352712744</v>
       </c>
       <c r="E11">
-        <v>2.508321452297508</v>
+        <v>0.6448531390765595</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007468419067043861</v>
+        <v>0.002515053485096922</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.95737961302848</v>
+        <v>6.051589242589387</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.975988632794525</v>
+        <v>1.043273334301631</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.50873620110292</v>
+        <v>0.4891072995795014</v>
       </c>
       <c r="C12">
-        <v>1.852082626322556</v>
+        <v>0.6354630944701398</v>
       </c>
       <c r="D12">
-        <v>0.3573733322103294</v>
+        <v>0.114103653554821</v>
       </c>
       <c r="E12">
-        <v>2.594872261290504</v>
+        <v>0.6613304853457578</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007427872974866939</v>
+        <v>0.002513439004070989</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.41252993030287</v>
+        <v>6.159160410733534</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.077313396954708</v>
+        <v>1.059591630873911</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.496835158576431</v>
+        <v>0.4878422838467031</v>
       </c>
       <c r="C13">
-        <v>1.840069795445459</v>
+        <v>0.6328518173332327</v>
       </c>
       <c r="D13">
-        <v>0.3550234937127215</v>
+        <v>0.1136048141749484</v>
       </c>
       <c r="E13">
-        <v>2.576083931478365</v>
+        <v>0.6577798039327831</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007436630254322479</v>
+        <v>0.002513785511584606</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.31399697491298</v>
+        <v>6.135991147566415</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.05532705319655</v>
+        <v>1.056070088604827</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.458439456837056</v>
+        <v>0.4837384979584556</v>
       </c>
       <c r="C14">
-        <v>1.801153563656726</v>
+        <v>0.624342034450649</v>
       </c>
       <c r="D14">
-        <v>0.3474094953988072</v>
+        <v>0.1119794694619003</v>
       </c>
       <c r="E14">
-        <v>2.515376597304353</v>
+        <v>0.6462078491076255</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007465094247348957</v>
+        <v>0.002514920119978965</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.99460007184291</v>
+        <v>6.060438359283637</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.984251967786889</v>
+        <v>1.044612654401448</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.435230083299501</v>
+        <v>0.4812414378610299</v>
       </c>
       <c r="C15">
-        <v>1.777509583055235</v>
+        <v>0.6191342507178774</v>
       </c>
       <c r="D15">
-        <v>0.3427823909248957</v>
+        <v>0.1109850297966659</v>
       </c>
       <c r="E15">
-        <v>2.478610302924579</v>
+        <v>0.6391254541543248</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007482459827346973</v>
+        <v>0.002515618617514212</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.80040214393097</v>
+        <v>6.01416535861307</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.941182278621881</v>
+        <v>1.037615382731985</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.306554782408881</v>
+        <v>0.4671845345131658</v>
       </c>
       <c r="C16">
-        <v>1.644724822937292</v>
+        <v>0.5893614567635836</v>
       </c>
       <c r="D16">
-        <v>0.3167817300537052</v>
+        <v>0.1053034047558867</v>
       </c>
       <c r="E16">
-        <v>2.27373280542686</v>
+        <v>0.5986245460303508</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007581059217640063</v>
+        <v>0.002519675491195361</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.70774090628711</v>
+        <v>5.749062675958299</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.700892414343883</v>
+        <v>0.9978317660740572</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.231075834128973</v>
+        <v>0.4587843280731079</v>
       </c>
       <c r="C17">
-        <v>1.565432564386924</v>
+        <v>0.5711588037086699</v>
       </c>
       <c r="D17">
-        <v>0.3012445779565098</v>
+        <v>0.1018329319788194</v>
       </c>
       <c r="E17">
-        <v>2.152647983225776</v>
+        <v>0.5738516882330487</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000764087615457414</v>
+        <v>0.002522212670333718</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.05358702345887</v>
+        <v>5.586480088260544</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.558698976615375</v>
+        <v>0.9737036559429555</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.188789124935255</v>
+        <v>0.4540339014910728</v>
       </c>
       <c r="C18">
-        <v>1.520531926869353</v>
+        <v>0.5607113975324296</v>
       </c>
       <c r="D18">
-        <v>0.2924431708178474</v>
+        <v>0.09984223174527074</v>
       </c>
       <c r="E18">
-        <v>2.084484796099019</v>
+        <v>0.5596286568840441</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007675087465957661</v>
+        <v>0.002523689850345491</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.68259678740165</v>
+        <v>5.492980130241676</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.478612803680392</v>
+        <v>0.9599266750415154</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.174652658530704</v>
+        <v>0.4524393423431547</v>
       </c>
       <c r="C19">
-        <v>1.50544283934056</v>
+        <v>0.5571778643750349</v>
       </c>
       <c r="D19">
-        <v>0.2894849240316262</v>
+        <v>0.09916913740539712</v>
       </c>
       <c r="E19">
-        <v>2.061642495389592</v>
+        <v>0.5548172758718124</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007686642084348287</v>
+        <v>0.002524193072573207</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.55783094016326</v>
+        <v>5.461324466969756</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.451770198234385</v>
+        <v>0.9552792341559382</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.238991048781429</v>
+        <v>0.4596701256788549</v>
       </c>
       <c r="C20">
-        <v>1.573798378751121</v>
+        <v>0.5730941901973097</v>
       </c>
       <c r="D20">
-        <v>0.3028841930088788</v>
+        <v>0.1022018062277539</v>
       </c>
       <c r="E20">
-        <v>2.165379965211514</v>
+        <v>0.5764861181438619</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007634529703867115</v>
+        <v>0.002521940736231144</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.12266398646929</v>
+        <v>5.603785801946231</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.573655232613589</v>
+        <v>0.9762616670724071</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.469651746168466</v>
+        <v>0.4849404091590657</v>
       </c>
       <c r="C21">
-        <v>1.812543268055265</v>
+        <v>0.6268405807916224</v>
       </c>
       <c r="D21">
-        <v>0.3496381461949483</v>
+        <v>0.112456636378397</v>
       </c>
       <c r="E21">
-        <v>2.533119015542496</v>
+        <v>0.6496056051438046</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000745674853404536</v>
+        <v>0.002514586125358205</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.08810939758348</v>
+        <v>6.082628920024831</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.005029794694082</v>
+        <v>1.047973651798003</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.633833123740771</v>
+        <v>0.5021977803743312</v>
       </c>
       <c r="C22">
-        <v>1.976978543844609</v>
+        <v>0.662176131861429</v>
       </c>
       <c r="D22">
-        <v>0.3817899079101039</v>
+        <v>0.119209117539171</v>
       </c>
       <c r="E22">
-        <v>2.791612972993306</v>
+        <v>0.6976479975276391</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007337597262646807</v>
+        <v>0.002509937064952601</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.43529171585953</v>
+        <v>6.395802980647716</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.307201637706811</v>
+        <v>1.09576639201785</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.544783248766294</v>
+        <v>0.4929183820058824</v>
       </c>
       <c r="C23">
-        <v>1.888327363892586</v>
+        <v>0.6432972128753249</v>
       </c>
       <c r="D23">
-        <v>0.364461764453722</v>
+        <v>0.1156004824001116</v>
       </c>
       <c r="E23">
-        <v>2.651701364716075</v>
+        <v>0.6719822935570932</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000740153185383341</v>
+        <v>0.002512404006063851</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.70964941482617</v>
+        <v>6.228630618855846</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.143782903942196</v>
+        <v>1.070172578906408</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.235409165605603</v>
+        <v>0.4592694108364981</v>
       </c>
       <c r="C24">
-        <v>1.570014079923681</v>
+        <v>0.5722191474461056</v>
       </c>
       <c r="D24">
-        <v>0.3021425186061037</v>
+        <v>0.1020350241211503</v>
       </c>
       <c r="E24">
-        <v>2.159619368470132</v>
+        <v>0.5752950328185165</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007637399477109772</v>
+        <v>0.002522063619792146</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.09141859115928</v>
+        <v>5.595961980460913</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.566888381220252</v>
+        <v>0.97510489590303</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9438050692397155</v>
+        <v>0.4260651907637225</v>
       </c>
       <c r="C25">
-        <v>1.253035466745871</v>
+        <v>0.4963953668455474</v>
       </c>
       <c r="D25">
-        <v>0.239969025739029</v>
+        <v>0.08760864306159988</v>
       </c>
       <c r="E25">
-        <v>1.684148798984438</v>
+        <v>0.47196823464121</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007884773474411827</v>
+        <v>0.002533166854326638</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.46358169683285</v>
+        <v>4.913971345221341</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.00812283165979</v>
+        <v>0.8764002133349038</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_128/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4041687455978149</v>
+        <v>0.7526962475582764</v>
       </c>
       <c r="C2">
-        <v>0.4412235849344484</v>
+        <v>1.034356851645157</v>
       </c>
       <c r="D2">
-        <v>0.07715048283563419</v>
+        <v>0.1970360613929216</v>
       </c>
       <c r="E2">
-        <v>0.3965652650683182</v>
+        <v>1.363704936219605</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002541939560967374</v>
+        <v>0.0008065503248171686</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.411538647597922</v>
+        <v>9.637178144950639</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8068701660591273</v>
+        <v>1.632275338322899</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3908692952634567</v>
+        <v>0.633379968042874</v>
       </c>
       <c r="C3">
-        <v>0.4042094729968255</v>
+        <v>0.8924348192119567</v>
       </c>
       <c r="D3">
-        <v>0.07015876778787344</v>
+        <v>0.1691647470063629</v>
       </c>
       <c r="E3">
-        <v>0.345811043711862</v>
+        <v>1.158758519993754</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002548262252503955</v>
+        <v>0.0008188794027987536</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.070534916726558</v>
+        <v>8.444821779086084</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7616356968760556</v>
+        <v>1.392892970802791</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3834465772345652</v>
+        <v>0.5639883429483632</v>
       </c>
       <c r="C4">
-        <v>0.3816579726803582</v>
+        <v>0.8076371275595591</v>
       </c>
       <c r="D4">
-        <v>0.06591116046998025</v>
+        <v>0.1525116034487866</v>
       </c>
       <c r="E4">
-        <v>0.3147953914821642</v>
+        <v>1.037364757784005</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002552332054598289</v>
+        <v>0.0008265333112955863</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.86080993971683</v>
+        <v>7.729270755077465</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7347685387720446</v>
+        <v>1.251706113858688</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3806063646344171</v>
+        <v>0.536536929125532</v>
       </c>
       <c r="C5">
-        <v>0.3725108200515876</v>
+        <v>0.7735748796762323</v>
       </c>
       <c r="D5">
-        <v>0.06419137647291961</v>
+        <v>0.1458225978229564</v>
       </c>
       <c r="E5">
-        <v>0.3021901846203576</v>
+        <v>0.9888155568767871</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002554037928637675</v>
+        <v>0.0008296789924919779</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.775244799034169</v>
+        <v>7.44109692090106</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.724044858176029</v>
+        <v>1.195405039368467</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3801458334133088</v>
+        <v>0.5320246375358977</v>
       </c>
       <c r="C6">
-        <v>0.3709944873466782</v>
+        <v>0.7679461144151105</v>
       </c>
       <c r="D6">
-        <v>0.06390647393328663</v>
+        <v>0.1447172762465954</v>
       </c>
       <c r="E6">
-        <v>0.3000990559146004</v>
+        <v>0.9808043080001312</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00255432405652453</v>
+        <v>0.0008302030894403143</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.761030320690196</v>
+        <v>7.393432357291147</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7222776915704401</v>
+        <v>1.186124840179872</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.383407528648263</v>
+        <v>0.5636149573372222</v>
       </c>
       <c r="C7">
-        <v>0.3815344395421221</v>
+        <v>0.8071758713462032</v>
       </c>
       <c r="D7">
-        <v>0.06588792203864102</v>
+        <v>0.152421021856739</v>
       </c>
       <c r="E7">
-        <v>0.314625260097273</v>
+        <v>1.036706522759474</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002552354868485636</v>
+        <v>0.0008265756201712332</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.859656402561285</v>
+        <v>7.725371415183417</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7346230089670769</v>
+        <v>1.250942095887041</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3994274539385003</v>
+        <v>0.710657889755538</v>
       </c>
       <c r="C8">
-        <v>0.4284239213243666</v>
+        <v>0.9848740333577553</v>
       </c>
       <c r="D8">
-        <v>0.07473017681671479</v>
+        <v>0.1873187204484879</v>
       </c>
       <c r="E8">
-        <v>0.3790326083024098</v>
+        <v>1.291988237271966</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002544080807889554</v>
+        <v>0.0008107875990359993</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.294024567563184</v>
+        <v>9.222136256581052</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.791083135073734</v>
+        <v>1.548388847247338</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4368466839879659</v>
+        <v>1.037659312277555</v>
       </c>
       <c r="C9">
-        <v>0.5218301252821789</v>
+        <v>1.35707464130212</v>
       </c>
       <c r="D9">
-        <v>0.09244186076475103</v>
+        <v>0.2603852635978967</v>
       </c>
       <c r="E9">
-        <v>0.5066588854961509</v>
+        <v>1.838715418826325</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00252933452624865</v>
+        <v>0.0007801926690857167</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.143701785016901</v>
+        <v>12.32848826699089</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9091500910551815</v>
+        <v>2.189748139497027</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4681541170267565</v>
+        <v>1.315330155188178</v>
       </c>
       <c r="C10">
-        <v>0.591441561245972</v>
+        <v>1.653874570501671</v>
       </c>
       <c r="D10">
-        <v>0.1057001517268787</v>
+        <v>0.3185741073920525</v>
       </c>
       <c r="E10">
-        <v>0.601454866448492</v>
+        <v>2.287764644701184</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002519388396983679</v>
+        <v>0.0007574203778251427</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.767616627688227</v>
+        <v>14.78314444949964</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.000598708895353</v>
+        <v>2.717363071591649</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4832599991705138</v>
+        <v>1.453983139347088</v>
       </c>
       <c r="C11">
-        <v>0.6233458687815414</v>
+        <v>1.796620865839941</v>
       </c>
       <c r="D11">
-        <v>0.1117892352712744</v>
+        <v>0.3465225162459404</v>
       </c>
       <c r="E11">
-        <v>0.6448531390765595</v>
+        <v>2.508321452297508</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002515053485096922</v>
+        <v>0.0007468419068085587</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.051589242589387</v>
+        <v>15.95737961302848</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.043273334301631</v>
+        <v>2.975988632794213</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4891072995795014</v>
+        <v>1.508736201102749</v>
       </c>
       <c r="C12">
-        <v>0.6354630944701398</v>
+        <v>1.852082626323295</v>
       </c>
       <c r="D12">
-        <v>0.114103653554821</v>
+        <v>0.3573733322107842</v>
       </c>
       <c r="E12">
-        <v>0.6613304853457578</v>
+        <v>2.594872261290504</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002513439004070989</v>
+        <v>0.000742787297501657</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.159160410733534</v>
+        <v>16.4125299303027</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.059591630873911</v>
+        <v>3.07731339695502</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4878422838467031</v>
+        <v>1.496835158576062</v>
       </c>
       <c r="C13">
-        <v>0.6328518173332327</v>
+        <v>1.840069795446368</v>
       </c>
       <c r="D13">
-        <v>0.1136048141749484</v>
+        <v>0.3550234937130199</v>
       </c>
       <c r="E13">
-        <v>0.6577798039327831</v>
+        <v>2.576083931478166</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002513785511584606</v>
+        <v>0.0007436630255579502</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.135991147566415</v>
+        <v>16.31399697491241</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.056070088604827</v>
+        <v>3.055327053196663</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4837384979584556</v>
+        <v>1.458439456837851</v>
       </c>
       <c r="C14">
-        <v>0.624342034450649</v>
+        <v>1.801153563657465</v>
       </c>
       <c r="D14">
-        <v>0.1119794694619003</v>
+        <v>0.3474094953989635</v>
       </c>
       <c r="E14">
-        <v>0.6462078491076255</v>
+        <v>2.515376597304368</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002514920119978965</v>
+        <v>0.0007465094249408451</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.060438359283637</v>
+        <v>15.99460007184263</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.044612654401448</v>
+        <v>2.984251967786605</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4812414378610299</v>
+        <v>1.435230083300326</v>
       </c>
       <c r="C15">
-        <v>0.6191342507178774</v>
+        <v>1.777509583055576</v>
       </c>
       <c r="D15">
-        <v>0.1109850297966659</v>
+        <v>0.3427823909248957</v>
       </c>
       <c r="E15">
-        <v>0.6391254541543248</v>
+        <v>2.478610302924508</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002515618617514212</v>
+        <v>0.0007482459828373426</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.01416535861307</v>
+        <v>15.80040214393097</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.037615382731985</v>
+        <v>2.941182278622023</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4671845345131658</v>
+        <v>1.306554782408796</v>
       </c>
       <c r="C16">
-        <v>0.5893614567635836</v>
+        <v>1.64472482293769</v>
       </c>
       <c r="D16">
-        <v>0.1053034047558867</v>
+        <v>0.3167817300537052</v>
       </c>
       <c r="E16">
-        <v>0.5986245460303508</v>
+        <v>2.273732805426803</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002519675491195361</v>
+        <v>0.0007581059219737296</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.749062675958299</v>
+        <v>14.70774090628714</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9978317660740572</v>
+        <v>2.700892414343969</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4587843280731079</v>
+        <v>1.231075834128944</v>
       </c>
       <c r="C17">
-        <v>0.5711588037086699</v>
+        <v>1.565432564386867</v>
       </c>
       <c r="D17">
-        <v>0.1018329319788194</v>
+        <v>0.3012445779568935</v>
       </c>
       <c r="E17">
-        <v>0.5738516882330487</v>
+        <v>2.152647983225933</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002522212670333718</v>
+        <v>0.0007640876154536746</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.586480088260544</v>
+        <v>14.0535870234589</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9737036559429555</v>
+        <v>2.558698976615347</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4540339014910728</v>
+        <v>1.188789124935113</v>
       </c>
       <c r="C18">
-        <v>0.5607113975324296</v>
+        <v>1.520531926869921</v>
       </c>
       <c r="D18">
-        <v>0.09984223174527074</v>
+        <v>0.2924431708182027</v>
       </c>
       <c r="E18">
-        <v>0.5596286568840441</v>
+        <v>2.084484796099019</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002523689850345491</v>
+        <v>0.0007675087467984498</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.492980130241676</v>
+        <v>13.68259678740188</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9599266750415154</v>
+        <v>2.478612803680335</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4524393423431547</v>
+        <v>1.17465265853005</v>
       </c>
       <c r="C19">
-        <v>0.5571778643750349</v>
+        <v>1.505442839339878</v>
       </c>
       <c r="D19">
-        <v>0.09916913740539712</v>
+        <v>0.2894849240317825</v>
       </c>
       <c r="E19">
-        <v>0.5548172758718124</v>
+        <v>2.061642495389435</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002524193072573207</v>
+        <v>0.0007686642085131385</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.461324466969756</v>
+        <v>13.55783094016351</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9552792341559382</v>
+        <v>2.451770198234186</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4596701256788549</v>
+        <v>1.238991048781344</v>
       </c>
       <c r="C20">
-        <v>0.5730941901973097</v>
+        <v>1.573798378750496</v>
       </c>
       <c r="D20">
-        <v>0.1022018062277539</v>
+        <v>0.3028841930091914</v>
       </c>
       <c r="E20">
-        <v>0.5764861181438619</v>
+        <v>2.165379965211415</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002521940736231144</v>
+        <v>0.0007634529701135136</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.603785801946231</v>
+        <v>14.12266398646929</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9762616670724071</v>
+        <v>2.573655232613618</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4849404091590657</v>
+        <v>1.469651746168267</v>
       </c>
       <c r="C21">
-        <v>0.6268405807916224</v>
+        <v>1.812543268055322</v>
       </c>
       <c r="D21">
-        <v>0.112456636378397</v>
+        <v>0.3496381461951046</v>
       </c>
       <c r="E21">
-        <v>0.6496056051438046</v>
+        <v>2.533119015542567</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002514586125358205</v>
+        <v>0.0007456748530776901</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.082628920024831</v>
+        <v>16.08810939758314</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.047973651798003</v>
+        <v>3.005029794694394</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5021977803743312</v>
+        <v>1.633833123740686</v>
       </c>
       <c r="C22">
-        <v>0.662176131861429</v>
+        <v>1.976978543844837</v>
       </c>
       <c r="D22">
-        <v>0.119209117539171</v>
+        <v>0.381789907909976</v>
       </c>
       <c r="E22">
-        <v>0.6976479975276391</v>
+        <v>2.791612972993462</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002509937064952601</v>
+        <v>0.0007337597262417894</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.395802980647716</v>
+        <v>17.43529171585982</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.09576639201785</v>
+        <v>3.307201637706527</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4929183820058824</v>
+        <v>1.544783248766464</v>
       </c>
       <c r="C23">
-        <v>0.6432972128753249</v>
+        <v>1.888327363891733</v>
       </c>
       <c r="D23">
-        <v>0.1156004824001116</v>
+        <v>0.3644617644536368</v>
       </c>
       <c r="E23">
-        <v>0.6719822935570932</v>
+        <v>2.651701364716047</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002512404006063851</v>
+        <v>0.0007401531851689233</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.228630618855846</v>
+        <v>16.70964941482617</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.070172578906408</v>
+        <v>3.143782903942054</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4592694108364981</v>
+        <v>1.23540916560475</v>
       </c>
       <c r="C24">
-        <v>0.5722191474461056</v>
+        <v>1.570014079922601</v>
       </c>
       <c r="D24">
-        <v>0.1020350241211503</v>
+        <v>0.3021425186064874</v>
       </c>
       <c r="E24">
-        <v>0.5752950328185165</v>
+        <v>2.159619368470203</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002522063619792146</v>
+        <v>0.0007637399475025039</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.595961980460913</v>
+        <v>14.09141859115928</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.97510489590303</v>
+        <v>2.566888381220281</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4260651907637225</v>
+        <v>0.9438050692399429</v>
       </c>
       <c r="C25">
-        <v>0.4963953668455474</v>
+        <v>1.253035466745757</v>
       </c>
       <c r="D25">
-        <v>0.08760864306159988</v>
+        <v>0.2399690257393274</v>
       </c>
       <c r="E25">
-        <v>0.47196823464121</v>
+        <v>1.684148798984367</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002533166854326638</v>
+        <v>0.0007884773474370887</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.913971345221341</v>
+        <v>11.4635816968329</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8764002133349038</v>
+        <v>2.008122831659705</v>
       </c>
       <c r="L25">
         <v>0</v>
